--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Retinopatía proliferativa.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Retinopatía proliferativa.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22.79483464251267</v>
+        <v>22.7957292726789</v>
       </c>
       <c r="B2" t="n">
-        <v>19.34306134380983</v>
+        <v>19.22985656262092</v>
       </c>
       <c r="C2" t="n">
-        <v>26.64809179300151</v>
+        <v>26.7291141594762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21.7569642327923</v>
+        <v>22.01324122430034</v>
       </c>
       <c r="B3" t="n">
-        <v>4.330503919330283</v>
+        <v>4.985943378995435</v>
       </c>
       <c r="C3" t="n">
-        <v>39.99722545118497</v>
+        <v>40.23106118721454</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22.23528031952389</v>
+        <v>22.17683594497943</v>
       </c>
       <c r="B4" t="n">
-        <v>12.93780102285912</v>
+        <v>12.93579588280059</v>
       </c>
       <c r="C4" t="n">
-        <v>31.73601980978995</v>
+        <v>31.8128034117784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26.81620209482942</v>
+        <v>26.62176316608863</v>
       </c>
       <c r="B5" t="n">
-        <v>8.426118498843614</v>
+        <v>8.391024657534235</v>
       </c>
       <c r="C5" t="n">
-        <v>45.05786485597982</v>
+        <v>45.77450913242003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29.6507456179157</v>
+        <v>30.22840946540404</v>
       </c>
       <c r="B6" t="n">
-        <v>24.77179267185987</v>
+        <v>23.85192929895855</v>
       </c>
       <c r="C6" t="n">
-        <v>35.77018494087233</v>
+        <v>35.90123295683938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20.33843540587952</v>
+        <v>20.34688352132542</v>
       </c>
       <c r="B7" t="n">
-        <v>17.43843754806717</v>
+        <v>17.43954552090043</v>
       </c>
       <c r="C7" t="n">
-        <v>23.04091712288866</v>
+        <v>23.16562185394933</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.745149977257846</v>
+        <v>3.747721289597126</v>
       </c>
       <c r="B8" t="n">
-        <v>2.880947427342037</v>
+        <v>2.893905736009925</v>
       </c>
       <c r="C8" t="n">
-        <v>5.120789764370001</v>
+        <v>5.116101568629986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27.72775980566993</v>
+        <v>28.08733651613845</v>
       </c>
       <c r="B9" t="n">
-        <v>23.25803998257192</v>
+        <v>23.44276965691799</v>
       </c>
       <c r="C9" t="n">
-        <v>33.10994641270609</v>
+        <v>33.06353489111826</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.762546106308216</v>
+        <v>3.767801038626333</v>
       </c>
       <c r="B10" t="n">
-        <v>2.891032635816242</v>
+        <v>2.89233431784446</v>
       </c>
       <c r="C10" t="n">
-        <v>5.141720406211283</v>
+        <v>5.14548468662595</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15.30856832884479</v>
+        <v>15.41814243619785</v>
       </c>
       <c r="B11" t="n">
-        <v>11.26389282704714</v>
+        <v>11.23587105155694</v>
       </c>
       <c r="C11" t="n">
-        <v>20.45723503366145</v>
+        <v>20.4678900674466</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>32.2433747033006</v>
+        <v>32.38415097798217</v>
       </c>
       <c r="B12" t="n">
-        <v>29.33487473470785</v>
+        <v>28.81439764502737</v>
       </c>
       <c r="C12" t="n">
-        <v>35.9994011493753</v>
+        <v>36.31146989734884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.624231519193191</v>
+        <v>5.65157898956937</v>
       </c>
       <c r="B13" t="n">
-        <v>4.136298816072412</v>
+        <v>4.120185087888845</v>
       </c>
       <c r="C13" t="n">
-        <v>7.914969746944502</v>
+        <v>7.925955876818584</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.176596863590543</v>
+        <v>9.122950656112311</v>
       </c>
       <c r="B14" t="n">
-        <v>6.642914796693983</v>
+        <v>6.595662102864509</v>
       </c>
       <c r="C14" t="n">
-        <v>12.93941455568061</v>
+        <v>12.78476494905586</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>31.51142298241599</v>
+        <v>32.23696667293063</v>
       </c>
       <c r="B15" t="n">
-        <v>12.81827411962742</v>
+        <v>10.47129575342465</v>
       </c>
       <c r="C15" t="n">
-        <v>54.4403558529028</v>
+        <v>54.48023090345728</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>29.46882784007683</v>
+        <v>30.34993155775826</v>
       </c>
       <c r="B16" t="n">
-        <v>24.77442385183083</v>
+        <v>23.92223098370977</v>
       </c>
       <c r="C16" t="n">
-        <v>35.91863495410536</v>
+        <v>36.02864779402602</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>32.17930557269046</v>
+        <v>32.20815545889828</v>
       </c>
       <c r="B17" t="n">
-        <v>29.3083578305124</v>
+        <v>28.76636088901758</v>
       </c>
       <c r="C17" t="n">
-        <v>36.00880231877586</v>
+        <v>36.08579470249187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>22.22535419676687</v>
+        <v>22.17683594497943</v>
       </c>
       <c r="B18" t="n">
-        <v>12.95696198653205</v>
+        <v>12.93579588280059</v>
       </c>
       <c r="C18" t="n">
-        <v>31.73601980978995</v>
+        <v>31.8128034117784</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15.76330384028864</v>
+        <v>15.75624207998909</v>
       </c>
       <c r="B19" t="n">
-        <v>11.48007711682255</v>
+        <v>11.50318374142364</v>
       </c>
       <c r="C19" t="n">
-        <v>21.79478609838538</v>
+        <v>21.9119032254371</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>35.19567308602186</v>
+        <v>35.27651753834856</v>
       </c>
       <c r="B20" t="n">
-        <v>30.00852624784123</v>
+        <v>29.67331660380743</v>
       </c>
       <c r="C20" t="n">
-        <v>40.1925953881305</v>
+        <v>40.36306633673983</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32.4349600891065</v>
+        <v>32.68772957053474</v>
       </c>
       <c r="B21" t="n">
-        <v>21.24508920388136</v>
+        <v>21.1448173133303</v>
       </c>
       <c r="C21" t="n">
-        <v>43.70762214734707</v>
+        <v>43.61960605546841</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.829155650672778</v>
+        <v>3.824864494852398</v>
       </c>
       <c r="B22" t="n">
-        <v>2.903475064744677</v>
+        <v>2.913011296233764</v>
       </c>
       <c r="C22" t="n">
-        <v>5.20401193273721</v>
+        <v>5.233377624053453</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34.46940416141894</v>
+        <v>34.56891033246549</v>
       </c>
       <c r="B23" t="n">
-        <v>9.11846869337867</v>
+        <v>9.172672716894972</v>
       </c>
       <c r="C23" t="n">
-        <v>57.1911675486518</v>
+        <v>57.14304279191119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>29.47819745804523</v>
+        <v>30.33912896354122</v>
       </c>
       <c r="B24" t="n">
-        <v>24.77442385183083</v>
+        <v>23.96240590232645</v>
       </c>
       <c r="C24" t="n">
-        <v>35.91026183358187</v>
+        <v>35.98415916405936</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24.98379239790792</v>
+        <v>25.41795868387253</v>
       </c>
       <c r="B25" t="n">
-        <v>20.63953260480861</v>
+        <v>20.07533898758255</v>
       </c>
       <c r="C25" t="n">
-        <v>29.87949998459352</v>
+        <v>29.80032808673684</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>32.56546277355213</v>
+        <v>32.96606823938602</v>
       </c>
       <c r="B26" t="n">
-        <v>21.53962081467594</v>
+        <v>22.04653618721458</v>
       </c>
       <c r="C26" t="n">
-        <v>44.16168979091199</v>
+        <v>43.9567899630034</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.61612695911043</v>
+        <v>5.59677433792848</v>
       </c>
       <c r="B27" t="n">
-        <v>4.145958102791231</v>
+        <v>4.109584185395674</v>
       </c>
       <c r="C27" t="n">
-        <v>8.031784352828103</v>
+        <v>8.094068839418723</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>21.70776047233005</v>
+        <v>21.68448429728166</v>
       </c>
       <c r="B28" t="n">
-        <v>18.77206671776649</v>
+        <v>18.76509775256399</v>
       </c>
       <c r="C28" t="n">
-        <v>24.94580217099799</v>
+        <v>24.8218263675423</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>36.80852846441811</v>
+        <v>36.34420247164773</v>
       </c>
       <c r="B29" t="n">
-        <v>10.52390212767263</v>
+        <v>11.12510570776251</v>
       </c>
       <c r="C29" t="n">
-        <v>57.39047221135024</v>
+        <v>57.31924722765815</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30.06859457226215</v>
+        <v>29.97245623510285</v>
       </c>
       <c r="B30" t="n">
-        <v>26.53681559679893</v>
+        <v>26.93860789202504</v>
       </c>
       <c r="C30" t="n">
-        <v>33.3855721717255</v>
+        <v>33.32993014576635</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.268139885671012</v>
+        <v>9.340605318891683</v>
       </c>
       <c r="B31" t="n">
-        <v>6.508046810756972</v>
+        <v>6.56517562034421</v>
       </c>
       <c r="C31" t="n">
-        <v>12.97976047259661</v>
+        <v>13.1169090752892</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.525260639844215</v>
+        <v>5.524349790936562</v>
       </c>
       <c r="B32" t="n">
-        <v>4.094392421769672</v>
+        <v>4.100575966059266</v>
       </c>
       <c r="C32" t="n">
-        <v>7.864544550518755</v>
+        <v>7.867658177867092</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.302663937495186</v>
+        <v>9.269542438902693</v>
       </c>
       <c r="B33" t="n">
-        <v>6.720375888752208</v>
+        <v>6.706173066015029</v>
       </c>
       <c r="C33" t="n">
-        <v>12.95482864443523</v>
+        <v>12.95023602790925</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>25.59850008097743</v>
+        <v>25.74718358503872</v>
       </c>
       <c r="B34" t="n">
-        <v>20.8007722135255</v>
+        <v>20.96019774114424</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61164871807016</v>
+        <v>31.38176446472727</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32.43533980084023</v>
+        <v>32.51572561956845</v>
       </c>
       <c r="B35" t="n">
-        <v>26.45578600834267</v>
+        <v>26.74853824061113</v>
       </c>
       <c r="C35" t="n">
-        <v>37.85362769094763</v>
+        <v>37.73993448926148</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20.35488086914465</v>
+        <v>20.36972614876687</v>
       </c>
       <c r="B36" t="n">
-        <v>17.4356857101279</v>
+        <v>17.40272070592649</v>
       </c>
       <c r="C36" t="n">
-        <v>23.04659833168001</v>
+        <v>23.20212218093124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35.32599452451013</v>
+        <v>36.19116775332004</v>
       </c>
       <c r="B37" t="n">
-        <v>23.74253408554756</v>
+        <v>23.57124184959178</v>
       </c>
       <c r="C37" t="n">
-        <v>48.94951352183787</v>
+        <v>48.45225262672845</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.189268463755671</v>
+        <v>9.177237881435854</v>
       </c>
       <c r="B38" t="n">
-        <v>6.55940006396987</v>
+        <v>6.556961302997985</v>
       </c>
       <c r="C38" t="n">
-        <v>13.1634424693358</v>
+        <v>13.296856322919</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>33.6547064685415</v>
+        <v>33.5356449767108</v>
       </c>
       <c r="B39" t="n">
-        <v>30.10321666665533</v>
+        <v>29.52652888212343</v>
       </c>
       <c r="C39" t="n">
-        <v>37.31678043936958</v>
+        <v>37.62347740533664</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>26.88492968636823</v>
+        <v>26.680144110805</v>
       </c>
       <c r="B40" t="n">
-        <v>15.22530964458239</v>
+        <v>13.97311799266535</v>
       </c>
       <c r="C40" t="n">
-        <v>38.00931721058996</v>
+        <v>38.04235071902983</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18.93535515801641</v>
+        <v>18.93162566153917</v>
       </c>
       <c r="B41" t="n">
-        <v>16.7453426380175</v>
+        <v>16.73758577934632</v>
       </c>
       <c r="C41" t="n">
-        <v>21.54441702843106</v>
+        <v>21.46885416020572</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15.66370655658317</v>
+        <v>15.62966812748561</v>
       </c>
       <c r="B42" t="n">
-        <v>11.71386380793048</v>
+        <v>11.50295470583448</v>
       </c>
       <c r="C42" t="n">
-        <v>20.74390879572172</v>
+        <v>20.78064197972285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>30.06859457226215</v>
+        <v>29.97365148303983</v>
       </c>
       <c r="B43" t="n">
-        <v>26.56682200452289</v>
+        <v>26.93589379001958</v>
       </c>
       <c r="C43" t="n">
-        <v>33.3258286859089</v>
+        <v>33.33764214153383</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13.83561924484376</v>
+        <v>13.83128420345437</v>
       </c>
       <c r="B44" t="n">
-        <v>11.04276302160717</v>
+        <v>10.89918134499355</v>
       </c>
       <c r="C44" t="n">
-        <v>17.12665256334093</v>
+        <v>17.1341447355329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16.08210873191365</v>
+        <v>15.96709044118684</v>
       </c>
       <c r="B45" t="n">
-        <v>11.7619802929211</v>
+        <v>11.75487283392216</v>
       </c>
       <c r="C45" t="n">
-        <v>21.54798066844514</v>
+        <v>21.51739349210451</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.91967818151995</v>
+        <v>8.90750635555338</v>
       </c>
       <c r="B46" t="n">
-        <v>6.506537080810192</v>
+        <v>6.462626924795975</v>
       </c>
       <c r="C46" t="n">
-        <v>12.18810533098956</v>
+        <v>12.21514508074283</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.801518228526303</v>
+        <v>3.795284418311202</v>
       </c>
       <c r="B47" t="n">
-        <v>2.85990518818939</v>
+        <v>2.834920445855212</v>
       </c>
       <c r="C47" t="n">
-        <v>5.228866799709913</v>
+        <v>5.276497808235737</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>32.30202717871725</v>
+        <v>32.53326962256635</v>
       </c>
       <c r="B48" t="n">
-        <v>29.33487473470785</v>
+        <v>28.93779961626342</v>
       </c>
       <c r="C48" t="n">
-        <v>36.11360084562492</v>
+        <v>36.47742860563646</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24.97273997541538</v>
+        <v>25.2478975674148</v>
       </c>
       <c r="B49" t="n">
-        <v>15.3452224477699</v>
+        <v>15.27996804273653</v>
       </c>
       <c r="C49" t="n">
-        <v>35.6804585487104</v>
+        <v>35.98422863992165</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>35.36945386203327</v>
+        <v>36.17365981974445</v>
       </c>
       <c r="B50" t="n">
-        <v>23.63182825839824</v>
+        <v>23.58432854684905</v>
       </c>
       <c r="C50" t="n">
-        <v>48.80674854849063</v>
+        <v>48.37888460195174</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>21.75637048459235</v>
+        <v>21.97260688674001</v>
       </c>
       <c r="B51" t="n">
-        <v>5.16526248985286</v>
+        <v>5.303065296803655</v>
       </c>
       <c r="C51" t="n">
-        <v>40.26214347140674</v>
+        <v>40.16996529680357</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.835958800891358</v>
+        <v>8.820770231815736</v>
       </c>
       <c r="B52" t="n">
-        <v>6.534387923118125</v>
+        <v>6.532839144147228</v>
       </c>
       <c r="C52" t="n">
-        <v>12.20022566205803</v>
+        <v>12.20975019517104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>33.75566385875064</v>
+        <v>33.64028560162796</v>
       </c>
       <c r="B53" t="n">
-        <v>30.11765210088436</v>
+        <v>29.75870271071227</v>
       </c>
       <c r="C53" t="n">
-        <v>37.29947653623147</v>
+        <v>37.73851917428607</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>31.57524947037259</v>
+        <v>32.06032767406005</v>
       </c>
       <c r="B54" t="n">
-        <v>9.249810756725756</v>
+        <v>9.472675547945206</v>
       </c>
       <c r="C54" t="n">
-        <v>54.27650112361382</v>
+        <v>54.51456710697978</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>32.54793515666413</v>
+        <v>32.79752668842855</v>
       </c>
       <c r="B55" t="n">
-        <v>21.21102736701146</v>
+        <v>20.77501086385707</v>
       </c>
       <c r="C55" t="n">
-        <v>44.45052422345498</v>
+        <v>44.3790375009652</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9.184163073285406</v>
+        <v>9.161590642464779</v>
       </c>
       <c r="B56" t="n">
-        <v>6.704436080242494</v>
+        <v>6.668565714863298</v>
       </c>
       <c r="C56" t="n">
-        <v>12.90448243289013</v>
+        <v>12.88963408781841</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.527181724990701</v>
+        <v>5.550337331710252</v>
       </c>
       <c r="B57" t="n">
-        <v>4.086104429138322</v>
+        <v>4.095500327763819</v>
       </c>
       <c r="C57" t="n">
-        <v>7.886321724825313</v>
+        <v>7.879327174488426</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>35.3060647079464</v>
+        <v>36.07043797559354</v>
       </c>
       <c r="B58" t="n">
-        <v>23.83233906111646</v>
+        <v>23.81036574864756</v>
       </c>
       <c r="C58" t="n">
-        <v>49.10423175702324</v>
+        <v>49.07575245348662</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>15.00399668042342</v>
+        <v>14.9844822381122</v>
       </c>
       <c r="B59" t="n">
-        <v>11.30961267487893</v>
+        <v>11.29970321402797</v>
       </c>
       <c r="C59" t="n">
-        <v>19.13545375157895</v>
+        <v>19.14078396781226</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>34.54438169915367</v>
+        <v>35.20907594237234</v>
       </c>
       <c r="B60" t="n">
-        <v>12.94761396734793</v>
+        <v>11.56186906392693</v>
       </c>
       <c r="C60" t="n">
-        <v>56.80813444227001</v>
+        <v>56.7927564253098</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.201918611485334</v>
+        <v>9.162047595752968</v>
       </c>
       <c r="B61" t="n">
-        <v>6.642090910890373</v>
+        <v>6.629833726366762</v>
       </c>
       <c r="C61" t="n">
-        <v>12.92975474823009</v>
+        <v>12.87679342816766</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>15.31091497655843</v>
+        <v>15.43582356709032</v>
       </c>
       <c r="B62" t="n">
-        <v>11.28739422629193</v>
+        <v>11.29250027079209</v>
       </c>
       <c r="C62" t="n">
-        <v>20.50690919211664</v>
+        <v>20.45506690956195</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.210290416474278</v>
+        <v>9.19330025705392</v>
       </c>
       <c r="B63" t="n">
-        <v>6.526277817538856</v>
+        <v>6.465816138203738</v>
       </c>
       <c r="C63" t="n">
-        <v>12.61314642959952</v>
+        <v>12.57386067816082</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>34.53163644386517</v>
+        <v>35.21484550884096</v>
       </c>
       <c r="B64" t="n">
-        <v>10.64644625512788</v>
+        <v>11.0447670091324</v>
       </c>
       <c r="C64" t="n">
-        <v>56.6029585127201</v>
+        <v>56.60139947814737</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.538740752201691</v>
+        <v>5.525844263879763</v>
       </c>
       <c r="B65" t="n">
-        <v>4.088305123676575</v>
+        <v>4.079875060133376</v>
       </c>
       <c r="C65" t="n">
-        <v>7.68305629030179</v>
+        <v>7.652851166556045</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>24.92799395956986</v>
+        <v>24.88070292301152</v>
       </c>
       <c r="B66" t="n">
-        <v>20.26166754313846</v>
+        <v>20.22248432702806</v>
       </c>
       <c r="C66" t="n">
-        <v>29.97588582631756</v>
+        <v>30.10838592211701</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>23.91497640897801</v>
+        <v>23.96375686257021</v>
       </c>
       <c r="B67" t="n">
-        <v>19.91206867186665</v>
+        <v>20.01131704059455</v>
       </c>
       <c r="C67" t="n">
-        <v>27.99408198559563</v>
+        <v>27.98742621818564</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>29.48451980160981</v>
+        <v>30.02401447478087</v>
       </c>
       <c r="B68" t="n">
-        <v>18.34352425358534</v>
+        <v>18.2541578071959</v>
       </c>
       <c r="C68" t="n">
-        <v>40.89716827608684</v>
+        <v>40.93696674014414</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.824027591436872</v>
+        <v>3.827299385830869</v>
       </c>
       <c r="B69" t="n">
-        <v>2.914627936980541</v>
+        <v>2.8874114370634</v>
       </c>
       <c r="C69" t="n">
-        <v>5.196933361152921</v>
+        <v>5.179403077591576</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>26.93936528242602</v>
+        <v>26.77615651454181</v>
       </c>
       <c r="B70" t="n">
-        <v>15.1801690585107</v>
+        <v>15.41291650385067</v>
       </c>
       <c r="C70" t="n">
-        <v>37.31474543093286</v>
+        <v>37.04061809375549</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21.95946378984153</v>
+        <v>21.8783063315752</v>
       </c>
       <c r="B71" t="n">
-        <v>18.96576267168812</v>
+        <v>19.17187175290154</v>
       </c>
       <c r="C71" t="n">
-        <v>24.73212420365973</v>
+        <v>24.60168772840371</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>26.30572931005629</v>
+        <v>26.35490243449845</v>
       </c>
       <c r="B72" t="n">
-        <v>23.33916543984762</v>
+        <v>23.43495790335223</v>
       </c>
       <c r="C72" t="n">
-        <v>29.27097548945395</v>
+        <v>29.32852155874417</v>
       </c>
     </row>
   </sheetData>
